--- a/数据整理/stocks/A股/创业板/300723-一品红.xlsx
+++ b/数据整理/stocks/A股/创业板/300723-一品红.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -545,7 +546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,17 +557,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -576,13 +597,103 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300723-一品红.xlsx
+++ b/数据整理/stocks/A股/创业板/300723-一品红.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -640,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -651,17 +652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -671,14 +692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -687,13 +730,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>1</v>
       </c>
       <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300723-一品红.xlsx
+++ b/数据整理/stocks/A股/创业板/300723-一品红.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,46 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011500</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>九泰量化新兴产业混合型证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0219</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
@@ -542,6 +532,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -635,13 +757,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -692,158 +814,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>011500</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>94.18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.0219</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>015171</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>申万菱信医药先锋股票C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.02</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300723-一品红.xlsx
+++ b/数据整理/stocks/A股/创业板/300723-一品红.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -588,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>007288</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>合煦智远消费主题股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -626,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015171</t>
+          <t>007287</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票C</t>
+          <t>合煦智远消费主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -669,7 +686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -730,26 +747,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1056</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -814,6 +869,100 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>011500</t>
         </is>
       </c>

--- a/数据整理/stocks/A股/创业板/300723-一品红.xlsx
+++ b/数据整理/stocks/A股/创业板/300723-一品红.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.01</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -554,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,36 +622,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007288</t>
+          <t>110023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票C</t>
+          <t>易方达医疗保健行业混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>46.14</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>89.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>2.2839</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -643,36 +660,454 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007287</t>
+          <t>010387</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>合煦智远消费主题股票A</t>
+          <t>易方达医药生物股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>20.77</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>20.37</t>
+          <t>91.88</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.10</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0006</t>
+          <t>1.0406</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010388</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达医药生物股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001898</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达大健康主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008619</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008618</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>永赢医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013072</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013073</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰信医疗服务混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000850</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信双核策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -737,36 +1172,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005433</t>
+          <t>007288</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票</t>
+          <t>合煦智远消费主题股票C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0708</t>
+          <t>0.0052</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -775,36 +1210,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>015171</t>
+          <t>007287</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>申万菱信医药先锋股票C</t>
+          <t>合煦智远消费主题股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>20.37</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0003</t>
+          <t>0.0006</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +1253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -879,26 +1314,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>87.80</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.80</t>
+          <t>3.37</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1056</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>015171</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -963,6 +1436,100 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>005433</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信医药先锋股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>011500</t>
         </is>
       </c>
